--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3416.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3416.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.271448866339749</v>
+        <v>1.611780881881714</v>
       </c>
       <c r="B1">
-        <v>1.832699844254188</v>
+        <v>4.168026924133301</v>
       </c>
       <c r="C1">
-        <v>3.554804599872516</v>
+        <v>3.657693386077881</v>
       </c>
       <c r="D1">
-        <v>5.115663013149058</v>
+        <v>1.80646812915802</v>
       </c>
       <c r="E1">
-        <v>1.220156472128549</v>
+        <v>1.03722095489502</v>
       </c>
     </row>
   </sheetData>
